--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCB3E34-E1E2-4182-AAD5-8B34DCC02182}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2660E7-E8E8-4CBD-89EA-6E5C4A87934D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期时间</t>
   </si>
@@ -117,6 +117,22 @@
   </si>
   <si>
     <t>安装数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/1 14:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/31 20:30--23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改自己的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成并提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -564,6 +580,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2660E7-E8E8-4CBD-89EA-6E5C4A87934D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2E05EF-9EBB-4614-89CD-E43A1759DAD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期时间</t>
   </si>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>修改完成并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/8 14:00--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习web层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -596,6 +604,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2E05EF-9EBB-4614-89CD-E43A1759DAD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5AD746-22C5-403F-9FD2-54B6EC35A4D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期时间</t>
   </si>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>练习web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/10 18:00--20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -612,6 +620,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5AD746-22C5-403F-9FD2-54B6EC35A4D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CCF07C-E255-41C3-BBD1-60ADFB4A095A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习jsp</t>
+    <t>学习jsp，写自己的web层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CCF07C-E255-41C3-BBD1-60ADFB4A095A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06FEC93-DC48-493D-A802-6D4F798D8247}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期时间</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>学习jsp，写自己的web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/11 19:00--22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习与自己有关的业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -628,6 +636,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06FEC93-DC48-493D-A802-6D4F798D8247}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBBCAF-BA4A-4D65-9457-63A9E81CA5A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>日期时间</t>
   </si>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>学习与自己有关的业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/14 16:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习业务方面的知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -644,6 +652,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBBCAF-BA4A-4D65-9457-63A9E81CA5A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E493D-B76E-4BA7-A06A-22E0FE678D79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>日期时间</t>
   </si>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>继续学习业务方面的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/17 18:30--20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善web层功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -660,6 +668,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E493D-B76E-4BA7-A06A-22E0FE678D79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623C780-20B0-439B-B470-DC4E1F604D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>日期时间</t>
   </si>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>完善web层功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/18 15:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续进行web层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,6 +684,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623C780-20B0-439B-B470-DC4E1F604D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCECF7-9C8F-4475-A634-20EA780A5F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>日期时间</t>
   </si>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>继续进行web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/20 14:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成web层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -692,6 +700,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCECF7-9C8F-4475-A634-20EA780A5F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE533FD0-8B7C-4694-9FCD-156D84770C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>日期时间</t>
   </si>
@@ -189,6 +189,14 @@
   </si>
   <si>
     <t>完成web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/21 19:00--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉自己的业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -708,6 +716,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE533FD0-8B7C-4694-9FCD-156D84770C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F2BF6-BBBE-4DCA-A501-8E9D28E63B9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>日期时间</t>
   </si>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>熟悉自己的业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/24 19:30--22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装node.js以及webstorm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -724,6 +732,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F2BF6-BBBE-4DCA-A501-8E9D28E63B9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A41B3EB-28C3-4D91-A4C1-0F99F36A9721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>日期时间</t>
   </si>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>安装node.js以及webstorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/25 19:00--22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -740,6 +748,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/小组log日志/201708044202zxf.xlsx
+++ b/doc/小组log日志/201708044202zxf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A41B3EB-28C3-4D91-A4C1-0F99F36A9721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9060E7A-F544-49D6-9159-DB99D353E77F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>日期时间</t>
   </si>
@@ -213,6 +213,22 @@
   </si>
   <si>
     <t>更新Vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/26 19:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改不规范的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/28 13:00--15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -756,6 +772,22 @@
         <v>49</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
